--- a/GR_nais_einheiten_unique_v2_bh_mf.xlsx
+++ b/GR_nais_einheiten_unique_v2_bh_mf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295F6D31-1772-47EA-AF89-49ACAD01774D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BFD7DA-46B7-422C-AA40-909394611607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Read me" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$208</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="375">
   <si>
     <t>ASS_GR</t>
   </si>
@@ -1028,9 +1028,6 @@
     <t>Region 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Region 2a </t>
-  </si>
-  <si>
     <t>Region 2b 2c</t>
   </si>
   <si>
@@ -1070,9 +1067,6 @@
     <t xml:space="preserve">Hyperinsubrisch habe ich nicht angegeben, es gibt in den Bündner Südtälern keine Einehiten, die nur hyperinsubrisch vorkommen, es genügt deshalb, wenn ich cob angebe. </t>
   </si>
   <si>
-    <t xml:space="preserve"> um/om</t>
-  </si>
-  <si>
     <t>om hm um/om</t>
   </si>
   <si>
@@ -1082,9 +1076,6 @@
     <t>Region 1, 2a, 2b und sa</t>
   </si>
   <si>
-    <t>Region 1, 2a, 2b  und hm</t>
-  </si>
-  <si>
     <t>Region 1, 2a, 2b und hm</t>
   </si>
   <si>
@@ -1152,6 +1143,12 @@
   </si>
   <si>
     <t>nais</t>
+  </si>
+  <si>
+    <t>um/om</t>
+  </si>
+  <si>
+    <t>Region 2a</t>
   </si>
 </sst>
 </file>
@@ -1609,8 +1606,8 @@
   <dimension ref="A1:J208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>310</v>
@@ -1649,7 +1646,7 @@
         <v>329</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>2</v>
@@ -1678,7 +1675,7 @@
         <v>299</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1701,7 +1698,7 @@
         <v>297</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2500,7 +2497,7 @@
         <v>50</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="H38" s="8">
         <v>65</v>
@@ -2526,7 +2523,7 @@
         <v>319</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>50</v>
@@ -2552,13 +2549,13 @@
         <v>69</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>69</v>
       </c>
       <c r="J40" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2570,7 +2567,7 @@
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H41" s="8">
         <v>68</v>
@@ -2596,7 +2593,7 @@
         <v>319</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>258</v>
@@ -2763,7 +2760,7 @@
         <v>146</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2786,7 +2783,7 @@
         <v>189</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2878,7 +2875,7 @@
         <v>146</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3016,7 +3013,7 @@
         <v>295</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3039,7 +3036,7 @@
         <v>293</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3062,7 +3059,7 @@
         <v>301</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3085,7 +3082,7 @@
         <v>209</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3108,7 +3105,7 @@
         <v>71</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3200,7 +3197,7 @@
         <v>225</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3361,7 +3358,7 @@
         <v>70</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3381,7 +3378,7 @@
         <v>70</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3427,7 +3424,7 @@
         <v>114</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3450,7 +3447,7 @@
         <v>291</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3473,7 +3470,7 @@
         <v>280</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -3496,7 +3493,7 @@
         <v>283</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3519,7 +3516,7 @@
         <v>286</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3542,10 +3539,10 @@
         <v>288</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="J83" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3628,13 +3625,13 @@
         <v>154</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>154</v>
       </c>
       <c r="J87" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3651,13 +3648,13 @@
         <v>58</v>
       </c>
       <c r="F88" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>119</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -3671,13 +3668,13 @@
         <v>154</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>154</v>
       </c>
       <c r="J89" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3694,13 +3691,13 @@
         <v>58</v>
       </c>
       <c r="F90" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H90" s="8" t="s">
         <v>152</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -3746,7 +3743,7 @@
         <v>284</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3769,7 +3766,7 @@
         <v>281</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -3792,7 +3789,7 @@
         <v>284</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -3815,7 +3812,7 @@
         <v>109</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -3976,7 +3973,7 @@
         <v>273</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -4091,7 +4088,7 @@
         <v>176</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4217,7 +4214,7 @@
         <v>42</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H113" s="8" t="s">
         <v>42</v>
@@ -4243,7 +4240,7 @@
         <v>169</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H114" s="8" t="s">
         <v>43</v>
@@ -4269,7 +4266,7 @@
         <v>156</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H115" s="8" t="s">
         <v>42</v>
@@ -4505,7 +4502,7 @@
         <v>113</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -4781,7 +4778,7 @@
         <v>107</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -4965,7 +4962,7 @@
         <v>191</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -5011,7 +5008,7 @@
         <v>80</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -5103,7 +5100,7 @@
         <v>227</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -5126,7 +5123,7 @@
         <v>8</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -5655,7 +5652,7 @@
         <v>130</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -5839,7 +5836,7 @@
         <v>116</v>
       </c>
       <c r="I183" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -5862,7 +5859,7 @@
         <v>118</v>
       </c>
       <c r="I184" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -5931,7 +5928,7 @@
         <v>312</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H187" s="8" t="s">
         <v>18</v>
@@ -5950,7 +5947,7 @@
       <c r="E188" s="3"/>
       <c r="F188" s="2"/>
       <c r="G188" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H188" s="8" t="s">
         <v>18</v>
@@ -5969,7 +5966,7 @@
       <c r="E189" s="3"/>
       <c r="F189" s="2"/>
       <c r="G189" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H189" s="8" t="s">
         <v>330</v>
@@ -6363,13 +6360,13 @@
         <v>322</v>
       </c>
       <c r="H206" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I206" s="6" t="s">
         <v>313</v>
       </c>
       <c r="J206" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -6395,7 +6392,7 @@
         <v>251</v>
       </c>
       <c r="J207" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -6422,7 +6419,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J208" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I208">
     <sortCondition ref="B2:B208"/>
   </sortState>
@@ -6443,42 +6440,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
